--- a/BaoCao/HoaDonBanLe.xlsx
+++ b/BaoCao/HoaDonBanLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7965"/>
+    <workbookView windowWidth="15708" windowHeight="5807"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,27 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Shop thời trang Luu Minh Hieu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+  <si>
+    <t>Shop thời trang Lưu Minh Hiếu</t>
   </si>
   <si>
     <t>Số chứng từ:</t>
   </si>
   <si>
-    <t>[MaHD]</t>
-  </si>
-  <si>
-    <t>Địa chỉ:</t>
+    <t>[MaPhieu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ: </t>
   </si>
   <si>
     <t>Ngày</t>
   </si>
   <si>
-    <t>[NgayLap]</t>
-  </si>
-  <si>
-    <t>SĐT: 0987654321</t>
+    <t>[NgayHT]</t>
+  </si>
+  <si>
+    <t>0987654321</t>
   </si>
   <si>
     <t>HÓA ĐƠN BÁN LẺ</t>
@@ -60,6 +60,18 @@
     <t>[DienThoai]</t>
   </si>
   <si>
+    <t>Xuất tại kho:</t>
+  </si>
+  <si>
+    <t>[TenKho]</t>
+  </si>
+  <si>
+    <t>D.Giải:</t>
+  </si>
+  <si>
+    <t>[GhiChu]</t>
+  </si>
+  <si>
     <t>STT</t>
   </si>
   <si>
@@ -69,12 +81,18 @@
     <t>Tên hàng</t>
   </si>
   <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
     <t>Số lượng</t>
   </si>
   <si>
     <t>Đơn giá</t>
   </si>
   <si>
+    <t>Giảm giá</t>
+  </si>
+  <si>
     <t>Thành tiền</t>
   </si>
   <si>
@@ -90,24 +108,27 @@
     <t>[TenHang]</t>
   </si>
   <si>
+    <t>[TenDVT]</t>
+  </si>
+  <si>
     <t>[SoLuong]</t>
   </si>
   <si>
     <t>[GiaBan]</t>
   </si>
   <si>
+    <t>[TienCK]</t>
+  </si>
+  <si>
     <t>[ThanhTien]</t>
   </si>
   <si>
-    <t>[GhiChu]</t>
+    <t>Tổng cộng</t>
   </si>
   <si>
     <t>Tiền CK</t>
   </si>
   <si>
-    <t>[TienCK]</t>
-  </si>
-  <si>
     <t>Tiền thuế</t>
   </si>
   <si>
@@ -115,9 +136,6 @@
   </si>
   <si>
     <t>Tổng tiền phải trả</t>
-  </si>
-  <si>
-    <t>[TongTien]</t>
   </si>
   <si>
     <t>[NgayThangNam]</t>
@@ -127,13 +145,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +177,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -166,63 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +285,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -281,6 +305,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -295,8 +320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +343,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,25 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,121 +499,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,26 +614,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +632,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,20 +669,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,43 +701,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,98 +749,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,48 +864,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,51 +1256,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="16.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="11.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="16.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="22.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="7.13888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.1388888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="11.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="11.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="14.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="22.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="21" spans="1:7">
+    <row r="4" ht="21" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1282,6 +1312,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -1299,120 +1331,167 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:7">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:7">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="22" t="s">
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(H10:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
-        <v>34</v>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="19" t="e">
+        <f>H14-H15+H16</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A14:C16"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A14:D17"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait"/>
@@ -1429,7 +1508,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1445,7 +1524,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/BaoCao/HoaDonBanLe.xlsx
+++ b/BaoCao/HoaDonBanLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15708" windowHeight="5807"/>
+    <workbookView windowWidth="15708" windowHeight="6672"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,13 +146,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,10 +177,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,54 +214,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,44 +278,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,13 +336,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,25 +420,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,127 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,15 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -632,15 +616,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +644,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -680,6 +664,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,142 +694,142 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,7 +882,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1259,7 +1252,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1489,9 +1482,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:D17"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait"/>
